--- a/src/assets/document/Fiche_Contact.xlsx
+++ b/src/assets/document/Fiche_Contact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atos\GestCampFront\src\assets\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projets\GestCampFront\GestCampFront\src\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D825F81-5781-4819-B08C-7083BB13CFD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595D794-DF7A-4DF2-A733-0B022CE45577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="21795" windowHeight="11744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulaire contact" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Nom</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
     <t>Sexe</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Adresse</t>
   </si>
   <si>
-    <t>Situation matrimoniale</t>
-  </si>
-  <si>
     <t>Profession</t>
   </si>
   <si>
@@ -70,6 +64,66 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Situation Mat</t>
+  </si>
+  <si>
+    <t>Date Naiss</t>
+  </si>
+  <si>
+    <t>Diallo</t>
+  </si>
+  <si>
+    <t>Thier</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Célibataire</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>www.facebook.com/thierdiallo</t>
+  </si>
+  <si>
+    <t>thier@diallo.com</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Tiko</t>
+  </si>
+  <si>
+    <t>Mermoz</t>
+  </si>
+  <si>
+    <t>Marié(e)</t>
+  </si>
+  <si>
+    <t>Développeur</t>
+  </si>
+  <si>
+    <t>www.facebook.com/tikokane</t>
+  </si>
+  <si>
+    <t>tikokane11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,23 +517,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="21.265625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.796875" customWidth="1"/>
-    <col min="12" max="12" width="23.46484375" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -490,51 +545,127 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>777118582</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>777118582</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D2" s="1"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>771768180</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34825</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>771768180</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{95440CB2-AA96-43B3-8E58-9BA720F8CE4D}">
       <formula1>2</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Le numéro de téléphone doit être supérieure à 7 caractères" sqref="C1:C1048576" xr:uid="{5FEF659D-6BA6-4DA5-8059-8352D5A3D95D}">
       <formula1>7</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Erreur" error="La taille de l'amil doit être supérieure à 7 caractères" promptTitle="Alerte" prompt="La taille doit être supérieure à 7 caractères" sqref="L1:L1048576" xr:uid="{D04A5163-00FF-4EE1-8F2C-477D4D96C8F4}">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Erreur" error="La taille de l'amil doit être supérieure à 7 caractères" promptTitle="Alerte" prompt="La taille doit être supérieure à 7 caractères" sqref="M1:M1048576" xr:uid="{D04A5163-00FF-4EE1-8F2C-477D4D96C8F4}">
       <formula1>7</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Erreur" error="Le numéro doit être supérieure à 7 caractères" promptTitle="Alerte" prompt="La taille doit être supérieure à 7 caractères" sqref="K1:K1048576" xr:uid="{900A94AA-919A-422A-8EFE-4A326FF86F1A}">
@@ -549,18 +680,27 @@
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Le nom doit être supérieure à 2 caractères" sqref="A1:A1048576" xr:uid="{79494C12-47DD-4A3D-AEE2-9129D58C3793}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="La date doit être comprise entre 01/01/1900 et 01/01/2020" sqref="D1:D1048576" xr:uid="{FB28203A-5FB1-4321-8DAB-90A1F919CB2D}">
-      <formula1>1</formula1>
-      <formula2>43831</formula2>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{4227345D-6E96-4534-9FB9-CD6FE6513A49}">
-      <formula1>"M,F"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{A761F848-440F-4952-988D-83A770CA01A5}">
-      <formula1>"Célibataire,Marié,Mariée"</formula1>
+      <formula1>"Masculin,Feminin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Veuillez choisir un niveau de visibilité parmis la liste" sqref="L1:L1048576" xr:uid="{353590F7-6E03-4FE1-A968-A356F0C77227}">
+      <formula1>"Public,Privé,Protégé"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{E043E1E5-952B-4AC1-9861-02F49077B2F5}">
+      <formula1>"Célibataire,Marié(e),Veuve,Divorcé(e)"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{24529E7A-A703-4460-907A-E1E6DAF4AA6D}">
+      <formula1>18628</formula1>
+      <formula2>44197</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{70CCA879-2144-445D-84E2-221A6D37A533}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{B3002AB1-E2F2-46D3-B80F-6CC6E208CB86}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{0D3ED992-3202-4BA5-BA71-393755911E98}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{FF62A773-3BAF-4C22-91D8-7C5514D67D2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>